--- a/2. objectcatalogus/IMKL2015 v 1.2.01io_object-attributen-ExtraRegels.xlsx
+++ b/2. objectcatalogus/IMKL2015 v 1.2.01io_object-attributen-ExtraRegels.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17927"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18067"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-3165" yWindow="735" windowWidth="17175" windowHeight="7125" tabRatio="875" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="-3165" yWindow="735" windowWidth="17175" windowHeight="7125" tabRatio="875" firstSheet="5" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="NL-WION" sheetId="27" r:id="rId1"/>
@@ -49,7 +49,7 @@
     <sheet name="Veiligheidsgebied" sheetId="40" r:id="rId35"/>
     <sheet name="Beheerder" sheetId="41" r:id="rId36"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="162913"/>
   <customWorkbookViews>
     <customWorkbookView name="Liesbeth Rombouts - Personal View" guid="{BDFA2A85-F4BF-4897-804D-CBAE98CBF382}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1793" windowHeight="964" tabRatio="753" activeSheetId="14"/>
   </customWorkbookViews>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3750" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3750" uniqueCount="308">
   <si>
     <t>Annotatie</t>
   </si>
@@ -1058,6 +1058,15 @@
 • urn:ogc:def:uom:OGC::cm
 • urn:ogc:def:uom:OGC::mm</t>
     </r>
+  </si>
+  <si>
+    <t>Strikte verplichting IMKL; extra check of UtilityNetwork bestaat en op vorm IMKL identificator: OPMERKING: 1..* ingeval gegevens bij een kabelEnLeidingContainer of ContainerLeidingelement horen.</t>
+  </si>
+  <si>
+    <t>Strikte verplichting IMKL; extra check of UtilityNetwork bestaat en op vorm IMKL identificator: OPMERKING: Als diepte bij een KabelOfleidingContainer of ContainerLeidingelement hoort moet 1..* mogelijk zijn.</t>
+  </si>
+  <si>
+    <t>Strikte verplichting IMKL; extra check of UtilityNetwork bestaat en op vorm IMKL identificator. OPMERKING: Als diepte bij een KabelOfleidingContainer of ContainerLeidingelement hoort moet 1..* mogelijk zijn.</t>
   </si>
 </sst>
 </file>
@@ -1671,7 +1680,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1918,6 +1927,15 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="447">
     <cellStyle name="Gevolgde hyperlink" xfId="356" builtinId="9" hidden="1"/>
@@ -3050,7 +3068,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -4240,8 +4258,8 @@
   </sheetPr>
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4344,23 +4362,23 @@
         <v>165</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:6" s="95" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="95" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="95" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="95" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="2">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="D6" s="96">
+        <v>1</v>
+      </c>
+      <c r="E6" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="95" t="s">
         <v>152</v>
       </c>
     </row>
@@ -4806,7 +4824,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -5282,7 +5300,7 @@
   </sheetPr>
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="125" zoomScalePageLayoutView="125" workbookViewId="0"/>
+    <sheetView topLeftCell="A6" zoomScaleNormal="100" zoomScaleSheetLayoutView="125" zoomScalePageLayoutView="125" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5749,7 +5767,7 @@
   </sheetPr>
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="125" zoomScalePageLayoutView="125" workbookViewId="0"/>
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" zoomScaleSheetLayoutView="125" zoomScalePageLayoutView="125" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7555,8 +7573,8 @@
   </sheetPr>
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="100" zoomScaleSheetLayoutView="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7699,24 +7717,24 @@
         <v>165</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
+    <row r="8" spans="1:6" s="102" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="102" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="102" t="s">
         <v>89</v>
       </c>
-      <c r="C8" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="D8" s="31">
-        <v>1</v>
-      </c>
-      <c r="E8" s="16" t="s">
+      <c r="C8" s="102" t="s">
+        <v>125</v>
+      </c>
+      <c r="D8" s="103">
+        <v>1</v>
+      </c>
+      <c r="E8" s="102" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="16" t="s">
-        <v>152</v>
+      <c r="F8" s="104" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="54" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7871,8 +7889,8 @@
   </sheetPr>
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScaleNormal="100" zoomScaleSheetLayoutView="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:XFD24"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7975,23 +7993,23 @@
         <v>165</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:6" s="95" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="95" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="95" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="95" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="2">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="D6" s="96">
+        <v>1</v>
+      </c>
+      <c r="E6" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="95" t="s">
         <v>152</v>
       </c>
     </row>
@@ -9975,8 +9993,8 @@
   </sheetPr>
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="110" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -10257,27 +10275,25 @@
       <c r="G13" s="89"/>
       <c r="H13" s="89"/>
     </row>
-    <row r="14" spans="1:8" s="21" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="71" t="s">
+    <row r="14" spans="1:8" s="102" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="102" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="71" t="s">
+      <c r="B14" s="102" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="55" t="s">
-        <v>125</v>
-      </c>
-      <c r="D14" s="65">
-        <v>1</v>
-      </c>
-      <c r="E14" s="71" t="s">
+      <c r="C14" s="104" t="s">
+        <v>125</v>
+      </c>
+      <c r="D14" s="103">
+        <v>1</v>
+      </c>
+      <c r="E14" s="102" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="55" t="s">
-        <v>152</v>
-      </c>
-      <c r="G14" s="71"/>
-      <c r="H14" s="71"/>
+      <c r="F14" s="104" t="s">
+        <v>306</v>
+      </c>
     </row>
     <row r="15" spans="1:8" s="49" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="49" t="s">
@@ -10351,8 +10367,8 @@
   </sheetPr>
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="110" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -10615,24 +10631,24 @@
         <v>165</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:6" s="102" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="102" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="102" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="D14" s="2">
-        <v>1</v>
-      </c>
-      <c r="E14" s="1" t="s">
+      <c r="C14" s="104" t="s">
+        <v>125</v>
+      </c>
+      <c r="D14" s="103">
+        <v>1</v>
+      </c>
+      <c r="E14" s="102" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="15" t="s">
-        <v>152</v>
+      <c r="F14" s="104" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -11383,8 +11399,8 @@
   </sheetPr>
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScaleNormal="100" zoomScaleSheetLayoutView="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -11487,23 +11503,23 @@
         <v>146</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:6" s="95" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="95" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="95" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="95" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="2">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="D6" s="96">
+        <v>1</v>
+      </c>
+      <c r="E6" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="95" t="s">
         <v>152</v>
       </c>
     </row>
@@ -14138,8 +14154,8 @@
   </sheetPr>
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScaleNormal="100" zoomScaleSheetLayoutView="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD19"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -14242,23 +14258,23 @@
         <v>146</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:6" s="95" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="95" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="95" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="95" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="2">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="D6" s="96">
+        <v>1</v>
+      </c>
+      <c r="E6" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="95" t="s">
         <v>152</v>
       </c>
     </row>
@@ -14727,8 +14743,8 @@
   </sheetPr>
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScaleNormal="100" zoomScaleSheetLayoutView="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD19"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -14826,23 +14842,23 @@
         <v>146</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:6" s="95" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="95" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="95" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="95" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="2">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="D6" s="96">
+        <v>1</v>
+      </c>
+      <c r="E6" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="95" t="s">
         <v>152</v>
       </c>
     </row>
@@ -15311,8 +15327,8 @@
   </sheetPr>
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD19"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -15415,23 +15431,23 @@
         <v>146</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:6" s="95" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="95" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="95" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="95" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="2">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="D6" s="96">
+        <v>1</v>
+      </c>
+      <c r="E6" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="95" t="s">
         <v>152</v>
       </c>
     </row>
@@ -15900,8 +15916,8 @@
   </sheetPr>
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD19"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -16004,23 +16020,23 @@
         <v>165</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:6" s="95" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="95" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="95" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="95" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="2">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="D6" s="96">
+        <v>1</v>
+      </c>
+      <c r="E6" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="95" t="s">
         <v>152</v>
       </c>
     </row>
@@ -16486,8 +16502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -16590,23 +16606,23 @@
         <v>165</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:6" s="95" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="95" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="95" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="95" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="2">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="D6" s="96">
+        <v>1</v>
+      </c>
+      <c r="E6" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="95" t="s">
         <v>152</v>
       </c>
     </row>
@@ -17077,7 +17093,7 @@
   </sheetPr>
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
